--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -790,7 +790,7 @@
         <v>130873705</v>
       </c>
       <c r="B3" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -892,45 +892,53 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130873745</v>
+        <v>130873700</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>57076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>438633</v>
+        <v>438768</v>
       </c>
       <c r="R4" t="n">
-        <v>6795187</v>
+        <v>6795206</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -982,60 +990,52 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130873700</v>
+        <v>130873745</v>
       </c>
       <c r="B5" t="n">
-        <v>57072</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>438768</v>
+        <v>438633</v>
       </c>
       <c r="R5" t="n">
-        <v>6795206</v>
+        <v>6795187</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
         <v>130873722</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>130873728</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130873741</v>
+        <v>130873733</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>438767</v>
+        <v>438651</v>
       </c>
       <c r="R8" t="n">
-        <v>6795135</v>
+        <v>6795214</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130873733</v>
+        <v>130873730</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1414,16 +1414,19 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>438651</v>
+        <v>438606</v>
       </c>
       <c r="R9" t="n">
-        <v>6795214</v>
+        <v>6795190</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1464,6 +1467,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1482,10 +1486,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130873730</v>
+        <v>130873741</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1511,19 +1515,16 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>438606</v>
+        <v>438767</v>
       </c>
       <c r="R10" t="n">
-        <v>6795190</v>
+        <v>6795135</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1564,7 +1565,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>130873693</v>
       </c>
       <c r="B11" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>130873737</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>130873740</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>130873721</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>130873707</v>
       </c>
       <c r="B15" t="n">
-        <v>56452</v>
+        <v>56456</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>130873731</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>130873694</v>
       </c>
       <c r="B17" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130873719</v>
+        <v>130873732</v>
       </c>
       <c r="B18" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2297,33 +2297,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>438646</v>
+        <v>438571</v>
       </c>
       <c r="R18" t="n">
-        <v>6795245</v>
+        <v>6795200</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2364,7 +2365,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130873732</v>
+        <v>130873723</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>438571</v>
+        <v>438879</v>
       </c>
       <c r="R19" t="n">
-        <v>6795200</v>
+        <v>6795213</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130873723</v>
+        <v>130873719</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2491,34 +2491,33 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>438879</v>
+        <v>438646</v>
       </c>
       <c r="R20" t="n">
-        <v>6795213</v>
+        <v>6795245</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2559,6 +2558,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2570,52 +2570,60 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130873726</v>
+        <v>130873699</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>57076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>438662</v>
+        <v>438808</v>
       </c>
       <c r="R21" t="n">
-        <v>6795157</v>
+        <v>6795184</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2674,53 +2682,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130873699</v>
+        <v>130873726</v>
       </c>
       <c r="B22" t="n">
-        <v>57072</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>438808</v>
+        <v>438662</v>
       </c>
       <c r="R22" t="n">
-        <v>6795184</v>
+        <v>6795157</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2782,7 +2782,7 @@
         <v>130873725</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>130873724</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>130873735</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>130873739</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>130873698</v>
       </c>
       <c r="B28" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>130873720</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>130873734</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>130873695</v>
       </c>
       <c r="B32" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3785,43 +3785,37 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130873703</v>
+        <v>130873697</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>91829</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -3829,10 +3823,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>439003</v>
+        <v>438905</v>
       </c>
       <c r="R33" t="n">
-        <v>6795150</v>
+        <v>6795075</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3885,7 +3879,7 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -3895,7 +3889,7 @@
         <v>130873742</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3992,7 +3986,7 @@
         <v>130873727</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4086,37 +4080,43 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130873697</v>
+        <v>130873703</v>
       </c>
       <c r="B36" t="n">
-        <v>91825</v>
+        <v>8451</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>438905</v>
+        <v>439003</v>
       </c>
       <c r="R36" t="n">
-        <v>6795075</v>
+        <v>6795150</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
@@ -4190,7 +4190,7 @@
         <v>130873736</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>130873729</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -892,53 +892,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130873700</v>
+        <v>130873745</v>
       </c>
       <c r="B4" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>438768</v>
+        <v>438633</v>
       </c>
       <c r="R4" t="n">
-        <v>6795206</v>
+        <v>6795187</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,52 +982,60 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130873745</v>
+        <v>130873700</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>438633</v>
+        <v>438768</v>
       </c>
       <c r="R5" t="n">
-        <v>6795187</v>
+        <v>6795206</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -2577,53 +2577,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130873699</v>
+        <v>130873726</v>
       </c>
       <c r="B21" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>438808</v>
+        <v>438662</v>
       </c>
       <c r="R21" t="n">
-        <v>6795184</v>
+        <v>6795157</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2682,45 +2674,53 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130873726</v>
+        <v>130873699</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>438662</v>
+        <v>438808</v>
       </c>
       <c r="R22" t="n">
-        <v>6795157</v>
+        <v>6795184</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2876,45 +2876,54 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130873724</v>
+        <v>130873702</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>438724</v>
+        <v>438985</v>
       </c>
       <c r="R24" t="n">
-        <v>6795185</v>
+        <v>6795128</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2955,6 +2964,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -2973,7 +2983,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130873735</v>
+        <v>130873724</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3008,10 +3018,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>438776</v>
+        <v>438724</v>
       </c>
       <c r="R25" t="n">
-        <v>6795246</v>
+        <v>6795185</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3070,54 +3080,45 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130873702</v>
+        <v>130873735</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>438985</v>
+        <v>438776</v>
       </c>
       <c r="R26" t="n">
-        <v>6795128</v>
+        <v>6795246</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3158,7 +3159,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -892,45 +892,53 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130873745</v>
+        <v>130873700</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>438633</v>
+        <v>438768</v>
       </c>
       <c r="R4" t="n">
-        <v>6795187</v>
+        <v>6795206</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -982,60 +990,52 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130873700</v>
+        <v>130873745</v>
       </c>
       <c r="B5" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>438768</v>
+        <v>438633</v>
       </c>
       <c r="R5" t="n">
-        <v>6795206</v>
+        <v>6795187</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130873732</v>
+        <v>130873719</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2297,34 +2297,33 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>438571</v>
+        <v>438646</v>
       </c>
       <c r="R18" t="n">
-        <v>6795200</v>
+        <v>6795245</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2365,6 +2364,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2376,14 +2376,14 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130873723</v>
+        <v>130873732</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>438879</v>
+        <v>438571</v>
       </c>
       <c r="R19" t="n">
-        <v>6795213</v>
+        <v>6795200</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130873719</v>
+        <v>130873723</v>
       </c>
       <c r="B20" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2491,33 +2491,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>438646</v>
+        <v>438879</v>
       </c>
       <c r="R20" t="n">
-        <v>6795245</v>
+        <v>6795213</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2558,7 +2559,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2570,52 +2570,60 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130873726</v>
+        <v>130873699</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>438662</v>
+        <v>438808</v>
       </c>
       <c r="R21" t="n">
-        <v>6795157</v>
+        <v>6795184</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2674,53 +2682,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130873699</v>
+        <v>130873726</v>
       </c>
       <c r="B22" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>438808</v>
+        <v>438662</v>
       </c>
       <c r="R22" t="n">
-        <v>6795184</v>
+        <v>6795157</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -3785,37 +3785,43 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130873697</v>
+        <v>130873703</v>
       </c>
       <c r="B33" t="n">
-        <v>91829</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -3823,10 +3829,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>438905</v>
+        <v>439003</v>
       </c>
       <c r="R33" t="n">
-        <v>6795075</v>
+        <v>6795150</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3879,17 +3885,17 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130873742</v>
+        <v>130873697</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3897,34 +3903,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>438980</v>
+        <v>438905</v>
       </c>
       <c r="R34" t="n">
-        <v>6795131</v>
+        <v>6795075</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3965,6 +3974,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -3976,14 +3986,14 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130873727</v>
+        <v>130873742</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4018,10 +4028,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>438675</v>
+        <v>438980</v>
       </c>
       <c r="R35" t="n">
-        <v>6795125</v>
+        <v>6795131</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4080,54 +4090,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130873703</v>
+        <v>130873727</v>
       </c>
       <c r="B36" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>439003</v>
+        <v>438675</v>
       </c>
       <c r="R36" t="n">
-        <v>6795150</v>
+        <v>6795125</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4168,7 +4169,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -1094,7 +1094,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130873722</v>
+        <v>130873728</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>438858</v>
+        <v>438641</v>
       </c>
       <c r="R6" t="n">
-        <v>6795118</v>
+        <v>6795153</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130873728</v>
+        <v>130873741</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>438641</v>
+        <v>438767</v>
       </c>
       <c r="R7" t="n">
-        <v>6795153</v>
+        <v>6795135</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130873733</v>
+        <v>130873730</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1317,16 +1317,19 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>438651</v>
+        <v>438606</v>
       </c>
       <c r="R8" t="n">
-        <v>6795214</v>
+        <v>6795190</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1367,6 +1370,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1385,7 +1389,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130873730</v>
+        <v>130873722</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1414,19 +1418,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>438606</v>
+        <v>438858</v>
       </c>
       <c r="R9" t="n">
-        <v>6795190</v>
+        <v>6795118</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1467,7 +1468,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130873741</v>
+        <v>130873733</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1521,10 +1521,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>438767</v>
+        <v>438651</v>
       </c>
       <c r="R10" t="n">
-        <v>6795135</v>
+        <v>6795214</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130873737</v>
+        <v>130873740</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>438755</v>
+        <v>438758</v>
       </c>
       <c r="R12" t="n">
-        <v>6795182</v>
+        <v>6795147</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130873740</v>
+        <v>130873737</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>438758</v>
+        <v>438755</v>
       </c>
       <c r="R13" t="n">
-        <v>6795147</v>
+        <v>6795182</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130873721</v>
+        <v>130873707</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>56456</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1893,34 +1893,42 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>206004</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>438889</v>
+        <v>438781</v>
       </c>
       <c r="R14" t="n">
-        <v>6795083</v>
+        <v>6795138</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1972,17 +1980,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130873707</v>
+        <v>130873721</v>
       </c>
       <c r="B15" t="n">
-        <v>56456</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1990,42 +1998,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>206004</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>438781</v>
+        <v>438889</v>
       </c>
       <c r="R15" t="n">
-        <v>6795138</v>
+        <v>6795083</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130873719</v>
+        <v>130873723</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2297,33 +2297,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>438646</v>
+        <v>438879</v>
       </c>
       <c r="R18" t="n">
-        <v>6795245</v>
+        <v>6795213</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2364,7 +2365,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130873723</v>
+        <v>130873719</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2491,34 +2491,33 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>438879</v>
+        <v>438646</v>
       </c>
       <c r="R20" t="n">
-        <v>6795213</v>
+        <v>6795245</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2559,6 +2558,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2570,60 +2570,52 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130873699</v>
+        <v>130873726</v>
       </c>
       <c r="B21" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>438808</v>
+        <v>438662</v>
       </c>
       <c r="R21" t="n">
-        <v>6795184</v>
+        <v>6795157</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2682,45 +2674,53 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130873726</v>
+        <v>130873699</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>438662</v>
+        <v>438808</v>
       </c>
       <c r="R22" t="n">
-        <v>6795157</v>
+        <v>6795184</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130873724</v>
+        <v>130873735</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>438724</v>
+        <v>438776</v>
       </c>
       <c r="R25" t="n">
-        <v>6795185</v>
+        <v>6795246</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130873735</v>
+        <v>130873724</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>438776</v>
+        <v>438724</v>
       </c>
       <c r="R26" t="n">
-        <v>6795246</v>
+        <v>6795185</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130873720</v>
+        <v>130873734</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>438986</v>
+        <v>438769</v>
       </c>
       <c r="R30" t="n">
-        <v>6795080</v>
+        <v>6795253</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3583,45 +3583,53 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130873734</v>
+        <v>130873695</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>438769</v>
+        <v>438796</v>
       </c>
       <c r="R31" t="n">
-        <v>6795253</v>
+        <v>6795140</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3680,53 +3688,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130873695</v>
+        <v>130873720</v>
       </c>
       <c r="B32" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>438796</v>
+        <v>438986</v>
       </c>
       <c r="R32" t="n">
-        <v>6795140</v>
+        <v>6795080</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3785,43 +3785,37 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130873703</v>
+        <v>130873697</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>91829</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -3829,10 +3823,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>439003</v>
+        <v>438905</v>
       </c>
       <c r="R33" t="n">
-        <v>6795150</v>
+        <v>6795075</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3885,17 +3879,17 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130873697</v>
+        <v>130873727</v>
       </c>
       <c r="B34" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3903,37 +3897,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>438905</v>
+        <v>438675</v>
       </c>
       <c r="R34" t="n">
-        <v>6795075</v>
+        <v>6795125</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3974,7 +3965,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -3986,52 +3976,61 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130873742</v>
+        <v>130873703</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>438980</v>
+        <v>439003</v>
       </c>
       <c r="R35" t="n">
-        <v>6795131</v>
+        <v>6795150</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4072,6 +4071,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130873727</v>
+        <v>130873742</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>438675</v>
+        <v>438980</v>
       </c>
       <c r="R36" t="n">
-        <v>6795125</v>
+        <v>6795131</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -1094,45 +1094,53 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130873728</v>
+        <v>130873693</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>438641</v>
+        <v>438755</v>
       </c>
       <c r="R6" t="n">
-        <v>6795153</v>
+        <v>6795183</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1191,7 +1199,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130873741</v>
+        <v>130873722</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1226,10 +1234,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>438767</v>
+        <v>438858</v>
       </c>
       <c r="R7" t="n">
-        <v>6795135</v>
+        <v>6795118</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1288,7 +1296,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130873730</v>
+        <v>130873728</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1317,19 +1325,16 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>438606</v>
+        <v>438641</v>
       </c>
       <c r="R8" t="n">
-        <v>6795190</v>
+        <v>6795153</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1370,7 +1375,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1389,7 +1393,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130873722</v>
+        <v>130873733</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1424,10 +1428,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>438858</v>
+        <v>438651</v>
       </c>
       <c r="R9" t="n">
-        <v>6795118</v>
+        <v>6795214</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1486,7 +1490,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130873733</v>
+        <v>130873730</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1515,16 +1519,19 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>438651</v>
+        <v>438606</v>
       </c>
       <c r="R10" t="n">
-        <v>6795214</v>
+        <v>6795190</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1565,6 +1572,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1583,53 +1591,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130873693</v>
+        <v>130873741</v>
       </c>
       <c r="B11" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>438755</v>
+        <v>438767</v>
       </c>
       <c r="R11" t="n">
-        <v>6795183</v>
+        <v>6795135</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130873740</v>
+        <v>130873737</v>
       </c>
       <c r="B12" t="n">
         <v>79243</v>
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>438758</v>
+        <v>438755</v>
       </c>
       <c r="R12" t="n">
-        <v>6795147</v>
+        <v>6795182</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130873737</v>
+        <v>130873740</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>438755</v>
+        <v>438758</v>
       </c>
       <c r="R13" t="n">
-        <v>6795182</v>
+        <v>6795147</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130873707</v>
+        <v>130873721</v>
       </c>
       <c r="B14" t="n">
-        <v>56456</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1893,42 +1893,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>206004</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>438781</v>
+        <v>438889</v>
       </c>
       <c r="R14" t="n">
-        <v>6795138</v>
+        <v>6795083</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1980,17 +1972,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130873721</v>
+        <v>130873707</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>56456</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1998,34 +1990,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>206004</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>438889</v>
+        <v>438781</v>
       </c>
       <c r="R15" t="n">
-        <v>6795083</v>
+        <v>6795138</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2077,52 +2077,60 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130873731</v>
+        <v>130873694</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>438582</v>
+        <v>438770</v>
       </c>
       <c r="R16" t="n">
-        <v>6795186</v>
+        <v>6795130</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2181,53 +2189,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130873694</v>
+        <v>130873731</v>
       </c>
       <c r="B17" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>438770</v>
+        <v>438582</v>
       </c>
       <c r="R17" t="n">
-        <v>6795130</v>
+        <v>6795186</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130873723</v>
+        <v>130873732</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>438879</v>
+        <v>438571</v>
       </c>
       <c r="R18" t="n">
-        <v>6795213</v>
+        <v>6795200</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130873732</v>
+        <v>130873723</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>438571</v>
+        <v>438879</v>
       </c>
       <c r="R19" t="n">
-        <v>6795200</v>
+        <v>6795213</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2577,45 +2577,53 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130873726</v>
+        <v>130873699</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>438662</v>
+        <v>438808</v>
       </c>
       <c r="R21" t="n">
-        <v>6795157</v>
+        <v>6795184</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2674,53 +2682,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130873699</v>
+        <v>130873726</v>
       </c>
       <c r="B22" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>438808</v>
+        <v>438662</v>
       </c>
       <c r="R22" t="n">
-        <v>6795184</v>
+        <v>6795157</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2876,54 +2876,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130873702</v>
+        <v>130873724</v>
       </c>
       <c r="B24" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>438985</v>
+        <v>438724</v>
       </c>
       <c r="R24" t="n">
-        <v>6795128</v>
+        <v>6795185</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2964,7 +2955,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3080,45 +3070,54 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130873724</v>
+        <v>130873702</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>438724</v>
+        <v>438985</v>
       </c>
       <c r="R26" t="n">
-        <v>6795185</v>
+        <v>6795128</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3159,6 +3158,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3486,45 +3486,53 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130873734</v>
+        <v>130873695</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>438769</v>
+        <v>438796</v>
       </c>
       <c r="R30" t="n">
-        <v>6795253</v>
+        <v>6795140</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3583,53 +3591,45 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130873695</v>
+        <v>130873720</v>
       </c>
       <c r="B31" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>438796</v>
+        <v>438986</v>
       </c>
       <c r="R31" t="n">
-        <v>6795140</v>
+        <v>6795080</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130873720</v>
+        <v>130873734</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -3723,10 +3723,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>438986</v>
+        <v>438769</v>
       </c>
       <c r="R32" t="n">
-        <v>6795080</v>
+        <v>6795253</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130873727</v>
+        <v>130873742</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>438675</v>
+        <v>438980</v>
       </c>
       <c r="R34" t="n">
-        <v>6795125</v>
+        <v>6795131</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3983,54 +3983,45 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130873703</v>
+        <v>130873727</v>
       </c>
       <c r="B35" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>439003</v>
+        <v>438675</v>
       </c>
       <c r="R35" t="n">
-        <v>6795150</v>
+        <v>6795125</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4071,7 +4062,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4090,45 +4080,54 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130873742</v>
+        <v>130873703</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>438980</v>
+        <v>439003</v>
       </c>
       <c r="R36" t="n">
-        <v>6795131</v>
+        <v>6795150</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4169,6 +4168,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -892,53 +892,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130873700</v>
+        <v>130873745</v>
       </c>
       <c r="B4" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>438768</v>
+        <v>438633</v>
       </c>
       <c r="R4" t="n">
-        <v>6795206</v>
+        <v>6795187</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,52 +982,60 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130873745</v>
+        <v>130873700</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>438633</v>
+        <v>438768</v>
       </c>
       <c r="R5" t="n">
-        <v>6795187</v>
+        <v>6795206</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1087,60 +1087,52 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130873693</v>
+        <v>130873722</v>
       </c>
       <c r="B6" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>438755</v>
+        <v>438858</v>
       </c>
       <c r="R6" t="n">
-        <v>6795183</v>
+        <v>6795118</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1199,7 +1191,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130873722</v>
+        <v>130873728</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1234,10 +1226,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>438858</v>
+        <v>438641</v>
       </c>
       <c r="R7" t="n">
-        <v>6795118</v>
+        <v>6795153</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1296,7 +1288,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130873728</v>
+        <v>130873733</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1331,10 +1323,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>438641</v>
+        <v>438651</v>
       </c>
       <c r="R8" t="n">
-        <v>6795153</v>
+        <v>6795214</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1393,7 +1385,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130873733</v>
+        <v>130873730</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1422,16 +1414,19 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>438651</v>
+        <v>438606</v>
       </c>
       <c r="R9" t="n">
-        <v>6795214</v>
+        <v>6795190</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1472,6 +1467,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1490,7 +1486,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130873730</v>
+        <v>130873741</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1519,19 +1515,16 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>438606</v>
+        <v>438767</v>
       </c>
       <c r="R10" t="n">
-        <v>6795190</v>
+        <v>6795135</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1572,7 +1565,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1591,45 +1583,53 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130873741</v>
+        <v>130873693</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>438767</v>
+        <v>438755</v>
       </c>
       <c r="R11" t="n">
-        <v>6795135</v>
+        <v>6795183</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130873721</v>
+        <v>130873707</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>56456</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1893,34 +1893,42 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>206004</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>438889</v>
+        <v>438781</v>
       </c>
       <c r="R14" t="n">
-        <v>6795083</v>
+        <v>6795138</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1972,17 +1980,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130873707</v>
+        <v>130873721</v>
       </c>
       <c r="B15" t="n">
-        <v>56456</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1990,42 +1998,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>206004</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>438781</v>
+        <v>438889</v>
       </c>
       <c r="R15" t="n">
-        <v>6795138</v>
+        <v>6795083</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2077,60 +2077,52 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130873694</v>
+        <v>130873731</v>
       </c>
       <c r="B16" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>438770</v>
+        <v>438582</v>
       </c>
       <c r="R16" t="n">
-        <v>6795130</v>
+        <v>6795186</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2189,45 +2181,53 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130873731</v>
+        <v>130873694</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>438582</v>
+        <v>438770</v>
       </c>
       <c r="R17" t="n">
-        <v>6795186</v>
+        <v>6795130</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2577,53 +2577,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130873699</v>
+        <v>130873726</v>
       </c>
       <c r="B21" t="n">
-        <v>57076</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>438808</v>
+        <v>438662</v>
       </c>
       <c r="R21" t="n">
-        <v>6795184</v>
+        <v>6795157</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2682,45 +2674,53 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130873726</v>
+        <v>130873699</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>438662</v>
+        <v>438808</v>
       </c>
       <c r="R22" t="n">
-        <v>6795157</v>
+        <v>6795184</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3486,53 +3486,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130873695</v>
+        <v>130873720</v>
       </c>
       <c r="B30" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>438796</v>
+        <v>438986</v>
       </c>
       <c r="R30" t="n">
-        <v>6795140</v>
+        <v>6795080</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3591,7 +3583,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130873720</v>
+        <v>130873734</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3626,10 +3618,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>438986</v>
+        <v>438769</v>
       </c>
       <c r="R31" t="n">
-        <v>6795080</v>
+        <v>6795253</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3688,45 +3680,53 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130873734</v>
+        <v>130873695</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>438769</v>
+        <v>438796</v>
       </c>
       <c r="R32" t="n">
-        <v>6795253</v>
+        <v>6795140</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -1094,7 +1094,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130873722</v>
+        <v>130873730</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1123,16 +1123,19 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>438858</v>
+        <v>438606</v>
       </c>
       <c r="R6" t="n">
-        <v>6795118</v>
+        <v>6795190</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1173,6 +1176,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1191,7 +1195,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130873728</v>
+        <v>130873733</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1226,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>438641</v>
+        <v>438651</v>
       </c>
       <c r="R7" t="n">
-        <v>6795153</v>
+        <v>6795214</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1288,7 +1292,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130873733</v>
+        <v>130873728</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1323,10 +1327,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>438651</v>
+        <v>438641</v>
       </c>
       <c r="R8" t="n">
-        <v>6795214</v>
+        <v>6795153</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1385,7 +1389,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130873730</v>
+        <v>130873722</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1414,19 +1418,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>438606</v>
+        <v>438858</v>
       </c>
       <c r="R9" t="n">
-        <v>6795190</v>
+        <v>6795118</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1467,7 +1468,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -2084,45 +2084,53 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130873731</v>
+        <v>130873694</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>438582</v>
+        <v>438770</v>
       </c>
       <c r="R16" t="n">
-        <v>6795186</v>
+        <v>6795130</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2181,53 +2189,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130873694</v>
+        <v>130873731</v>
       </c>
       <c r="B17" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>438770</v>
+        <v>438582</v>
       </c>
       <c r="R17" t="n">
-        <v>6795130</v>
+        <v>6795186</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130873732</v>
+        <v>130873723</v>
       </c>
       <c r="B18" t="n">
         <v>79243</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>438571</v>
+        <v>438879</v>
       </c>
       <c r="R18" t="n">
-        <v>6795200</v>
+        <v>6795213</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130873723</v>
+        <v>130873732</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>438879</v>
+        <v>438571</v>
       </c>
       <c r="R19" t="n">
-        <v>6795213</v>
+        <v>6795200</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2876,45 +2876,54 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130873724</v>
+        <v>130873702</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>438724</v>
+        <v>438985</v>
       </c>
       <c r="R24" t="n">
-        <v>6795185</v>
+        <v>6795128</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2955,6 +2964,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -2973,7 +2983,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130873735</v>
+        <v>130873724</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3008,10 +3018,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>438776</v>
+        <v>438724</v>
       </c>
       <c r="R25" t="n">
-        <v>6795246</v>
+        <v>6795185</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3070,54 +3080,45 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130873702</v>
+        <v>130873735</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>438985</v>
+        <v>438776</v>
       </c>
       <c r="R26" t="n">
-        <v>6795128</v>
+        <v>6795246</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3158,7 +3159,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3274,40 +3274,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130873698</v>
+        <v>130873701</v>
       </c>
       <c r="B28" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3317,10 +3318,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>438966</v>
+        <v>438757</v>
       </c>
       <c r="R28" t="n">
-        <v>6795127</v>
+        <v>6795166</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3361,6 +3362,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3379,41 +3381,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130873701</v>
+        <v>130873698</v>
       </c>
       <c r="B29" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3423,10 +3424,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>438757</v>
+        <v>438966</v>
       </c>
       <c r="R29" t="n">
-        <v>6795166</v>
+        <v>6795127</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3467,7 +3468,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130873720</v>
+        <v>130873734</v>
       </c>
       <c r="B30" t="n">
         <v>79243</v>
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>438986</v>
+        <v>438769</v>
       </c>
       <c r="R30" t="n">
-        <v>6795080</v>
+        <v>6795253</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130873734</v>
+        <v>130873720</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3618,10 +3618,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>438769</v>
+        <v>438986</v>
       </c>
       <c r="R31" t="n">
-        <v>6795253</v>
+        <v>6795080</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130873697</v>
+        <v>130873742</v>
       </c>
       <c r="B33" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3796,37 +3796,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>438905</v>
+        <v>438980</v>
       </c>
       <c r="R33" t="n">
-        <v>6795075</v>
+        <v>6795131</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3867,7 +3864,6 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -3879,14 +3875,14 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130873742</v>
+        <v>130873727</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -3921,10 +3917,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>438980</v>
+        <v>438675</v>
       </c>
       <c r="R34" t="n">
-        <v>6795131</v>
+        <v>6795125</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3983,10 +3979,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130873727</v>
+        <v>130873697</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3994,34 +3990,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>438675</v>
+        <v>438905</v>
       </c>
       <c r="R35" t="n">
-        <v>6795125</v>
+        <v>6795075</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4062,6 +4061,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -1094,7 +1094,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130873730</v>
+        <v>130873741</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1123,19 +1123,16 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>438606</v>
+        <v>438767</v>
       </c>
       <c r="R6" t="n">
-        <v>6795190</v>
+        <v>6795135</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1176,7 +1173,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1195,45 +1191,53 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130873733</v>
+        <v>130873693</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>438651</v>
+        <v>438755</v>
       </c>
       <c r="R7" t="n">
-        <v>6795214</v>
+        <v>6795183</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1292,7 +1296,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130873728</v>
+        <v>130873722</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1327,10 +1331,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>438641</v>
+        <v>438858</v>
       </c>
       <c r="R8" t="n">
-        <v>6795153</v>
+        <v>6795118</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1389,7 +1393,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130873722</v>
+        <v>130873728</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1424,10 +1428,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>438858</v>
+        <v>438641</v>
       </c>
       <c r="R9" t="n">
-        <v>6795118</v>
+        <v>6795153</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1486,7 +1490,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130873741</v>
+        <v>130873733</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1521,10 +1525,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>438767</v>
+        <v>438651</v>
       </c>
       <c r="R10" t="n">
-        <v>6795135</v>
+        <v>6795214</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1583,42 +1587,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130873693</v>
+        <v>130873730</v>
       </c>
       <c r="B11" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1626,10 +1625,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>438755</v>
+        <v>438606</v>
       </c>
       <c r="R11" t="n">
-        <v>6795183</v>
+        <v>6795190</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1670,6 +1669,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130873707</v>
+        <v>130873721</v>
       </c>
       <c r="B14" t="n">
-        <v>56456</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1893,42 +1893,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>206004</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>438781</v>
+        <v>438889</v>
       </c>
       <c r="R14" t="n">
-        <v>6795138</v>
+        <v>6795083</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1980,17 +1972,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130873721</v>
+        <v>130873707</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>56456</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1998,34 +1990,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>206004</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>438889</v>
+        <v>438781</v>
       </c>
       <c r="R15" t="n">
-        <v>6795083</v>
+        <v>6795138</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130873723</v>
+        <v>130873719</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2297,34 +2297,33 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>438879</v>
+        <v>438646</v>
       </c>
       <c r="R18" t="n">
-        <v>6795213</v>
+        <v>6795245</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2365,6 +2364,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130873719</v>
+        <v>130873723</v>
       </c>
       <c r="B20" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2491,33 +2491,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>438646</v>
+        <v>438879</v>
       </c>
       <c r="R20" t="n">
-        <v>6795245</v>
+        <v>6795213</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2558,7 +2559,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3274,41 +3274,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130873701</v>
+        <v>130873698</v>
       </c>
       <c r="B28" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3318,10 +3317,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>438757</v>
+        <v>438966</v>
       </c>
       <c r="R28" t="n">
-        <v>6795166</v>
+        <v>6795127</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3362,7 +3361,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3381,40 +3379,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130873698</v>
+        <v>130873701</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3424,10 +3423,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>438966</v>
+        <v>438757</v>
       </c>
       <c r="R29" t="n">
-        <v>6795127</v>
+        <v>6795166</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3468,6 +3467,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3486,45 +3486,53 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130873734</v>
+        <v>130873695</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>438769</v>
+        <v>438796</v>
       </c>
       <c r="R30" t="n">
-        <v>6795253</v>
+        <v>6795140</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3680,53 +3688,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130873695</v>
+        <v>130873734</v>
       </c>
       <c r="B32" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>438796</v>
+        <v>438769</v>
       </c>
       <c r="R32" t="n">
-        <v>6795140</v>
+        <v>6795253</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130873742</v>
+        <v>130873697</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3796,34 +3796,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>438980</v>
+        <v>438905</v>
       </c>
       <c r="R33" t="n">
-        <v>6795131</v>
+        <v>6795075</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3864,6 +3867,7 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -3875,52 +3879,61 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130873727</v>
+        <v>130873703</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>438675</v>
+        <v>439003</v>
       </c>
       <c r="R34" t="n">
-        <v>6795125</v>
+        <v>6795150</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3961,6 +3974,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -3979,10 +3993,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130873697</v>
+        <v>130873742</v>
       </c>
       <c r="B35" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3990,37 +4004,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>438905</v>
+        <v>438980</v>
       </c>
       <c r="R35" t="n">
-        <v>6795075</v>
+        <v>6795131</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4061,7 +4072,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4073,61 +4083,52 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130873703</v>
+        <v>130873727</v>
       </c>
       <c r="B36" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>439003</v>
+        <v>438675</v>
       </c>
       <c r="R36" t="n">
-        <v>6795150</v>
+        <v>6795125</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4168,7 +4169,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -895,7 +895,7 @@
         <v>130873745</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130873741</v>
+        <v>130873730</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,16 +1123,19 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>438767</v>
+        <v>438606</v>
       </c>
       <c r="R6" t="n">
-        <v>6795135</v>
+        <v>6795190</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1173,6 +1176,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>130873722</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1396,7 +1400,7 @@
         <v>130873728</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1493,7 +1497,7 @@
         <v>130873733</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1587,10 +1591,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130873730</v>
+        <v>130873741</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1616,19 +1620,16 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>438606</v>
+        <v>438767</v>
       </c>
       <c r="R11" t="n">
-        <v>6795190</v>
+        <v>6795135</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1669,7 +1670,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>130873737</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>130873740</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>130873721</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2084,53 +2084,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130873694</v>
+        <v>130873731</v>
       </c>
       <c r="B16" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>438770</v>
+        <v>438582</v>
       </c>
       <c r="R16" t="n">
-        <v>6795130</v>
+        <v>6795186</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2189,45 +2181,53 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130873731</v>
+        <v>130873694</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>438582</v>
+        <v>438770</v>
       </c>
       <c r="R17" t="n">
-        <v>6795186</v>
+        <v>6795130</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130873719</v>
+        <v>130873732</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2297,33 +2297,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>438646</v>
+        <v>438571</v>
       </c>
       <c r="R18" t="n">
-        <v>6795245</v>
+        <v>6795200</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2364,7 +2365,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130873732</v>
+        <v>130873723</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>438571</v>
+        <v>438879</v>
       </c>
       <c r="R19" t="n">
-        <v>6795200</v>
+        <v>6795213</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130873723</v>
+        <v>130873719</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2491,34 +2491,33 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>438879</v>
+        <v>438646</v>
       </c>
       <c r="R20" t="n">
-        <v>6795213</v>
+        <v>6795245</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2559,6 +2558,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -2580,7 +2580,7 @@
         <v>130873726</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>130873725</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2876,54 +2876,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130873702</v>
+        <v>130873724</v>
       </c>
       <c r="B24" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>438985</v>
+        <v>438724</v>
       </c>
       <c r="R24" t="n">
-        <v>6795128</v>
+        <v>6795185</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2964,7 +2955,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -2983,10 +2973,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130873724</v>
+        <v>130873735</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3018,10 +3008,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>438724</v>
+        <v>438776</v>
       </c>
       <c r="R25" t="n">
-        <v>6795185</v>
+        <v>6795246</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3080,45 +3070,54 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130873735</v>
+        <v>130873702</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>438776</v>
+        <v>438985</v>
       </c>
       <c r="R26" t="n">
-        <v>6795246</v>
+        <v>6795128</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3159,6 +3158,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>130873739</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>130873720</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>130873734</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>130873697</v>
       </c>
       <c r="B33" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3886,54 +3886,45 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130873703</v>
+        <v>130873742</v>
       </c>
       <c r="B34" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>439003</v>
+        <v>438980</v>
       </c>
       <c r="R34" t="n">
-        <v>6795150</v>
+        <v>6795131</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3974,7 +3965,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -3993,10 +3983,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130873742</v>
+        <v>130873727</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4028,10 +4018,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>438980</v>
+        <v>438675</v>
       </c>
       <c r="R35" t="n">
-        <v>6795131</v>
+        <v>6795125</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4090,45 +4080,54 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130873727</v>
+        <v>130873703</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>438675</v>
+        <v>439003</v>
       </c>
       <c r="R36" t="n">
-        <v>6795125</v>
+        <v>6795150</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4169,6 +4168,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>130873736</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>130873729</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -1094,7 +1094,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130873730</v>
+        <v>130873722</v>
       </c>
       <c r="B6" t="n">
         <v>79244</v>
@@ -1123,19 +1123,16 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>438606</v>
+        <v>438858</v>
       </c>
       <c r="R6" t="n">
-        <v>6795190</v>
+        <v>6795118</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1176,7 +1173,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1195,53 +1191,45 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130873693</v>
+        <v>130873728</v>
       </c>
       <c r="B7" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>438755</v>
+        <v>438641</v>
       </c>
       <c r="R7" t="n">
-        <v>6795183</v>
+        <v>6795153</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1300,7 +1288,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130873722</v>
+        <v>130873733</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1335,10 +1323,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>438858</v>
+        <v>438651</v>
       </c>
       <c r="R8" t="n">
-        <v>6795118</v>
+        <v>6795214</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,7 +1385,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130873728</v>
+        <v>130873730</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1426,16 +1414,19 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>438641</v>
+        <v>438606</v>
       </c>
       <c r="R9" t="n">
-        <v>6795153</v>
+        <v>6795190</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1476,6 +1467,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1494,7 +1486,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130873733</v>
+        <v>130873741</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1529,10 +1521,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>438651</v>
+        <v>438767</v>
       </c>
       <c r="R10" t="n">
-        <v>6795214</v>
+        <v>6795135</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1591,45 +1583,53 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130873741</v>
+        <v>130873693</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>438767</v>
+        <v>438755</v>
       </c>
       <c r="R11" t="n">
-        <v>6795135</v>
+        <v>6795183</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -3785,37 +3785,43 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130873697</v>
+        <v>130873703</v>
       </c>
       <c r="B33" t="n">
-        <v>91830</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -3823,10 +3829,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>438905</v>
+        <v>439003</v>
       </c>
       <c r="R33" t="n">
-        <v>6795075</v>
+        <v>6795150</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3879,17 +3885,17 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130873742</v>
+        <v>130873697</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>91830</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3897,34 +3903,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>438980</v>
+        <v>438905</v>
       </c>
       <c r="R34" t="n">
-        <v>6795131</v>
+        <v>6795075</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3965,6 +3974,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -3976,14 +3986,14 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130873727</v>
+        <v>130873742</v>
       </c>
       <c r="B35" t="n">
         <v>79244</v>
@@ -4018,10 +4028,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>438675</v>
+        <v>438980</v>
       </c>
       <c r="R35" t="n">
-        <v>6795125</v>
+        <v>6795131</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4080,54 +4090,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130873703</v>
+        <v>130873727</v>
       </c>
       <c r="B36" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>439003</v>
+        <v>438675</v>
       </c>
       <c r="R36" t="n">
-        <v>6795150</v>
+        <v>6795125</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4168,7 +4169,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 61999-2025 artfynd.xlsx
+++ b/artfynd/A 61999-2025 artfynd.xlsx
@@ -1094,45 +1094,53 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130873722</v>
+        <v>130873693</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>438858</v>
+        <v>438755</v>
       </c>
       <c r="R6" t="n">
-        <v>6795118</v>
+        <v>6795183</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1191,7 +1199,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130873728</v>
+        <v>130873730</v>
       </c>
       <c r="B7" t="n">
         <v>79244</v>
@@ -1220,16 +1228,19 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>438641</v>
+        <v>438606</v>
       </c>
       <c r="R7" t="n">
-        <v>6795153</v>
+        <v>6795190</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1270,6 +1281,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1385,7 +1397,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130873730</v>
+        <v>130873728</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1414,19 +1426,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>438606</v>
+        <v>438641</v>
       </c>
       <c r="R9" t="n">
-        <v>6795190</v>
+        <v>6795153</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1467,7 +1476,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1486,7 +1494,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130873741</v>
+        <v>130873722</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1521,10 +1529,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>438767</v>
+        <v>438858</v>
       </c>
       <c r="R10" t="n">
-        <v>6795135</v>
+        <v>6795118</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1583,53 +1591,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130873693</v>
+        <v>130873741</v>
       </c>
       <c r="B11" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>438755</v>
+        <v>438767</v>
       </c>
       <c r="R11" t="n">
-        <v>6795183</v>
+        <v>6795135</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130873732</v>
+        <v>130873723</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>438571</v>
+        <v>438879</v>
       </c>
       <c r="R18" t="n">
-        <v>6795200</v>
+        <v>6795213</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130873723</v>
+        <v>130873732</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>438879</v>
+        <v>438571</v>
       </c>
       <c r="R19" t="n">
-        <v>6795213</v>
+        <v>6795200</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2577,45 +2577,53 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130873726</v>
+        <v>130873699</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>57076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>438662</v>
+        <v>438808</v>
       </c>
       <c r="R21" t="n">
-        <v>6795157</v>
+        <v>6795184</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2674,53 +2682,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130873699</v>
+        <v>130873726</v>
       </c>
       <c r="B22" t="n">
-        <v>57076</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>102613</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>438808</v>
+        <v>438662</v>
       </c>
       <c r="R22" t="n">
-        <v>6795184</v>
+        <v>6795157</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3274,40 +3274,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130873698</v>
+        <v>130873701</v>
       </c>
       <c r="B28" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3317,10 +3318,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>438966</v>
+        <v>438757</v>
       </c>
       <c r="R28" t="n">
-        <v>6795127</v>
+        <v>6795166</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3361,6 +3362,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3379,41 +3381,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130873701</v>
+        <v>130873698</v>
       </c>
       <c r="B29" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3423,10 +3424,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>438757</v>
+        <v>438966</v>
       </c>
       <c r="R29" t="n">
-        <v>6795166</v>
+        <v>6795127</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3467,7 +3468,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3486,53 +3486,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130873695</v>
+        <v>130873734</v>
       </c>
       <c r="B30" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>438796</v>
+        <v>438769</v>
       </c>
       <c r="R30" t="n">
-        <v>6795140</v>
+        <v>6795253</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3688,45 +3680,53 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130873734</v>
+        <v>130873695</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>438769</v>
+        <v>438796</v>
       </c>
       <c r="R32" t="n">
-        <v>6795253</v>
+        <v>6795140</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3785,43 +3785,37 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130873703</v>
+        <v>130873697</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>91830</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -3829,10 +3823,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>439003</v>
+        <v>438905</v>
       </c>
       <c r="R33" t="n">
-        <v>6795150</v>
+        <v>6795075</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3885,17 +3879,17 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Eva Löfqvist</t>
+          <t>Eva Löfqvist, Alfhild Sehlin</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130873697</v>
+        <v>130873742</v>
       </c>
       <c r="B34" t="n">
-        <v>91830</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3903,37 +3897,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>438905</v>
+        <v>438980</v>
       </c>
       <c r="R34" t="n">
-        <v>6795075</v>
+        <v>6795131</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3974,7 +3965,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -3986,14 +3976,14 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Eva Löfqvist, Alfhild Sehlin</t>
+          <t>Eva Löfqvist</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130873742</v>
+        <v>130873727</v>
       </c>
       <c r="B35" t="n">
         <v>79244</v>
@@ -4028,10 +4018,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>438980</v>
+        <v>438675</v>
       </c>
       <c r="R35" t="n">
-        <v>6795131</v>
+        <v>6795125</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4090,45 +4080,54 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130873727</v>
+        <v>130873703</v>
       </c>
       <c r="B36" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Snipan, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>438675</v>
+        <v>439003</v>
       </c>
       <c r="R36" t="n">
-        <v>6795125</v>
+        <v>6795150</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4169,6 +4168,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
